--- a/small_data2.xlsx
+++ b/small_data2.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="10911"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{111B2EBB-1741-B544-B7AD-AA70878D2078}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6E2DF984-633D-F24F-B4B7-1D8B0FDF8C84}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="2880" yWindow="2060" windowWidth="32200" windowHeight="17180" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -817,7 +817,7 @@
   <dimension ref="A1:V38"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="125" zoomScaleNormal="125" workbookViewId="0">
-      <selection activeCell="F2" sqref="F2"/>
+      <selection activeCell="C11" sqref="C11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -1158,7 +1158,7 @@
         <v>4</v>
       </c>
       <c r="C6">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D6" s="2">
         <v>4</v>
@@ -1468,7 +1468,7 @@
         <v>3</v>
       </c>
       <c r="C11">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D11" s="2">
         <v>6</v>
